--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_18_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_18_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2050522.145626251</v>
+        <v>-2053109.656831828</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>148.8764122760774</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>125.4878410191485</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -674,10 +674,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>296.3356618821742</v>
       </c>
       <c r="I2" t="n">
-        <v>48.0814842140681</v>
+        <v>48.08148421406807</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,10 +710,10 @@
         <v>113.0324549812898</v>
       </c>
       <c r="T2" t="n">
-        <v>204.6565392873045</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.0086695104302</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -756,7 +756,7 @@
         <v>90.46872094984357</v>
       </c>
       <c r="I3" t="n">
-        <v>11.79954938173972</v>
+        <v>11.79954938173971</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -820,22 +820,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.1014899708501</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>145.4278941339733</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.62837588899009</v>
+        <v>98.62837588899008</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>92.33507763978305</v>
+        <v>92.33507763978304</v>
       </c>
       <c r="S4" t="n">
         <v>191.0879511638283</v>
@@ -874,7 +874,7 @@
         <v>286.2159662989849</v>
       </c>
       <c r="V4" t="n">
-        <v>76.47064844263163</v>
+        <v>92.95059688267403</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>265.9318059937551</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,10 +953,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>250.9537838682469</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1072,7 +1072,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>119.2476358610087</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>27.18948638822752</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1133,13 +1133,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>90.10327878341587</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1148,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>28.72759225321406</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,13 +1190,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1297,19 +1297,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>40.6449711539754</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,16 +1345,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>90.12084770937717</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1531,16 +1531,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182157</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1585,13 +1585,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>86.09789039964251</v>
       </c>
       <c r="W13" t="n">
-        <v>78.68827782033638</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>28.75188085812036</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>212.2057120211298</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>144.4286493356915</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>139.3687739767485</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2132,7 +2132,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2245,16 +2245,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>220.6346102953135</v>
+        <v>186.9166231085219</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2485,13 +2485,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703268</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>223.8290352905946</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428175</v>
+        <v>83.06560892428142</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272882</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3035,13 +3035,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3123,7 +3123,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
         <v>56.98118882652581</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3360,7 +3360,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
         <v>142.9621736065881</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="38">
@@ -3679,7 +3679,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>964.9484237002573</v>
+        <v>1154.347715785389</v>
       </c>
       <c r="C2" t="n">
-        <v>595.9859067598456</v>
+        <v>1154.347715785389</v>
       </c>
       <c r="D2" t="n">
-        <v>237.7202081530954</v>
+        <v>796.0820171786386</v>
       </c>
       <c r="E2" t="n">
-        <v>110.9648131842587</v>
+        <v>410.2937645803943</v>
       </c>
       <c r="F2" t="n">
-        <v>110.9648131842587</v>
+        <v>410.2937645803943</v>
       </c>
       <c r="G2" t="n">
-        <v>110.9648131842587</v>
+        <v>410.2937645803943</v>
       </c>
       <c r="H2" t="n">
         <v>110.9648131842587</v>
       </c>
       <c r="I2" t="n">
-        <v>62.39765741247275</v>
+        <v>62.39765741247279</v>
       </c>
       <c r="J2" t="n">
-        <v>237.1001391730312</v>
+        <v>237.1001391730313</v>
       </c>
       <c r="K2" t="n">
-        <v>549.6723906315693</v>
+        <v>549.6723906315697</v>
       </c>
       <c r="L2" t="n">
-        <v>974.3476699529738</v>
+        <v>974.3476699529742</v>
       </c>
       <c r="M2" t="n">
-        <v>1478.550181808268</v>
+        <v>1478.55018180827</v>
       </c>
       <c r="N2" t="n">
-        <v>1995.525025811713</v>
+        <v>1995.525025811714</v>
       </c>
       <c r="O2" t="n">
-        <v>2470.354450076069</v>
+        <v>2470.354450076071</v>
       </c>
       <c r="P2" t="n">
-        <v>2841.109377259757</v>
+        <v>2841.10937725976</v>
       </c>
       <c r="Q2" t="n">
-        <v>3071.358140510236</v>
+        <v>3071.358140510239</v>
       </c>
       <c r="R2" t="n">
-        <v>3119.882870623637</v>
+        <v>3119.88287062364</v>
       </c>
       <c r="S2" t="n">
-        <v>3005.70867367284</v>
+        <v>3005.708673672842</v>
       </c>
       <c r="T2" t="n">
-        <v>2798.984896614956</v>
+        <v>3005.708673672842</v>
       </c>
       <c r="U2" t="n">
-        <v>2798.984896614956</v>
+        <v>2752.164563056245</v>
       </c>
       <c r="V2" t="n">
-        <v>2467.922009271385</v>
+        <v>2421.101675712674</v>
       </c>
       <c r="W2" t="n">
-        <v>2115.153354001271</v>
+        <v>2068.33302044256</v>
       </c>
       <c r="X2" t="n">
-        <v>1741.687595740191</v>
+        <v>1694.86726218148</v>
       </c>
       <c r="Y2" t="n">
-        <v>1351.548263764379</v>
+        <v>1304.727930205669</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3126773451369</v>
+        <v>1494.45028327407</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8596480640099</v>
+        <v>1319.997253992942</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9252384027586</v>
+        <v>1171.062844331691</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6877833973032</v>
+        <v>1011.825389326236</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1532254241882</v>
+        <v>865.2908313531206</v>
       </c>
       <c r="G3" t="n">
-        <v>165.6989405756882</v>
+        <v>728.8365465046206</v>
       </c>
       <c r="H3" t="n">
-        <v>74.31639416170479</v>
+        <v>637.4540000906372</v>
       </c>
       <c r="I3" t="n">
-        <v>62.39765741247275</v>
+        <v>625.5352633414052</v>
       </c>
       <c r="J3" t="n">
-        <v>147.6314117602529</v>
+        <v>710.7690176891854</v>
       </c>
       <c r="K3" t="n">
-        <v>505.1752167419863</v>
+        <v>934.6019044271187</v>
       </c>
       <c r="L3" t="n">
-        <v>852.4686968101803</v>
+        <v>1281.895384495313</v>
       </c>
       <c r="M3" t="n">
-        <v>1277.100675446836</v>
+        <v>1706.527363131969</v>
       </c>
       <c r="N3" t="n">
-        <v>1727.380043941864</v>
+        <v>2156.806731626997</v>
       </c>
       <c r="O3" t="n">
-        <v>2117.07790170106</v>
+        <v>2546.504589386192</v>
       </c>
       <c r="P3" t="n">
-        <v>2410.51172267956</v>
+        <v>2839.938410364693</v>
       </c>
       <c r="Q3" t="n">
-        <v>2556.745264694707</v>
+        <v>3080.506684337844</v>
       </c>
       <c r="R3" t="n">
-        <v>2556.745264694707</v>
+        <v>3119.88287062364</v>
       </c>
       <c r="S3" t="n">
-        <v>2425.6136627297</v>
+        <v>2988.751268658632</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.603124153399</v>
+        <v>2795.740730082332</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.529278295636</v>
+        <v>2567.666884224569</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.377170063893</v>
+        <v>2332.514775992826</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.139813335692</v>
+        <v>2078.277419264624</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.288313130159</v>
+        <v>1870.425919059091</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.528014365205</v>
+        <v>1662.665620294138</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2063.505153131231</v>
+        <v>2046.858740565534</v>
       </c>
       <c r="C4" t="n">
-        <v>1894.568970203324</v>
+        <v>1877.922557637627</v>
       </c>
       <c r="D4" t="n">
-        <v>1894.568970203324</v>
+        <v>1727.805918225291</v>
       </c>
       <c r="E4" t="n">
-        <v>1894.568970203324</v>
+        <v>1579.892824642898</v>
       </c>
       <c r="F4" t="n">
-        <v>1747.679022705414</v>
+        <v>1433.002877144988</v>
       </c>
       <c r="G4" t="n">
-        <v>1579.899739906575</v>
+        <v>1433.002877144988</v>
       </c>
       <c r="H4" t="n">
-        <v>1433.002877144986</v>
+        <v>1433.002877144988</v>
       </c>
       <c r="I4" t="n">
-        <v>1333.378255034895</v>
+        <v>1333.378255034896</v>
       </c>
       <c r="J4" t="n">
-        <v>1373.203697426283</v>
+        <v>1373.203697426285</v>
       </c>
       <c r="K4" t="n">
-        <v>1568.485969881409</v>
+        <v>1568.485969881411</v>
       </c>
       <c r="L4" t="n">
-        <v>1873.906479893692</v>
+        <v>1873.906479893694</v>
       </c>
       <c r="M4" t="n">
-        <v>2206.318707680742</v>
+        <v>2206.318707680744</v>
       </c>
       <c r="N4" t="n">
-        <v>2536.26153209073</v>
+        <v>2536.261532090732</v>
       </c>
       <c r="O4" t="n">
-        <v>2825.000837712486</v>
+        <v>2825.000837712489</v>
       </c>
       <c r="P4" t="n">
-        <v>3048.546512699443</v>
+        <v>3048.546512699445</v>
       </c>
       <c r="Q4" t="n">
-        <v>3119.882870623637</v>
+        <v>3119.88287062364</v>
       </c>
       <c r="R4" t="n">
-        <v>3026.615115431937</v>
+        <v>3026.61511543194</v>
       </c>
       <c r="S4" t="n">
-        <v>2833.596982943222</v>
+        <v>2833.596982943224</v>
       </c>
       <c r="T4" t="n">
-        <v>2611.503733862094</v>
+        <v>2611.503733862096</v>
       </c>
       <c r="U4" t="n">
-        <v>2322.396697196452</v>
+        <v>2322.396697196455</v>
       </c>
       <c r="V4" t="n">
-        <v>2245.153617961471</v>
+        <v>2228.507205395774</v>
       </c>
       <c r="W4" t="n">
-        <v>2245.153617961471</v>
+        <v>2228.507205395774</v>
       </c>
       <c r="X4" t="n">
-        <v>2245.153617961471</v>
+        <v>2228.507205395774</v>
       </c>
       <c r="Y4" t="n">
-        <v>2245.153617961471</v>
+        <v>2228.507205395774</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1274.580917301916</v>
+        <v>1859.132475219475</v>
       </c>
       <c r="C5" t="n">
-        <v>1274.580917301916</v>
+        <v>1490.169958279064</v>
       </c>
       <c r="D5" t="n">
-        <v>916.3152186951659</v>
+        <v>1131.904259672313</v>
       </c>
       <c r="E5" t="n">
-        <v>530.5269660969217</v>
+        <v>746.1160070740689</v>
       </c>
       <c r="F5" t="n">
-        <v>119.5410613073141</v>
+        <v>335.1301022844613</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4586,31 +4586,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176916</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.78584760293</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="X5" t="n">
-        <v>2051.32008934185</v>
+        <v>2635.871647259409</v>
       </c>
       <c r="Y5" t="n">
-        <v>1661.180757366038</v>
+        <v>2245.732315283597</v>
       </c>
     </row>
     <row r="6">
@@ -4641,31 +4641,31 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4699,43 +4699,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>923.9108438165264</v>
+        <v>826.5851666348717</v>
       </c>
       <c r="C7" t="n">
-        <v>754.9746608886195</v>
+        <v>657.6489837069648</v>
       </c>
       <c r="D7" t="n">
-        <v>604.8580214762837</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E7" t="n">
-        <v>456.9449278938906</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959802</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959802</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415547</v>
+        <v>1525.326049237485</v>
       </c>
       <c r="U7" t="n">
-        <v>1615.697475415547</v>
+        <v>1236.223182363129</v>
       </c>
       <c r="V7" t="n">
-        <v>1361.01298720966</v>
+        <v>1236.223182363129</v>
       </c>
       <c r="W7" t="n">
-        <v>1333.548859544783</v>
+        <v>1236.223182363129</v>
       </c>
       <c r="X7" t="n">
-        <v>1105.559308646766</v>
+        <v>1008.233631465111</v>
       </c>
       <c r="Y7" t="n">
-        <v>1105.559308646766</v>
+        <v>1008.233631465111</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2034.604709474942</v>
+        <v>1639.433183287319</v>
       </c>
       <c r="C8" t="n">
-        <v>1665.642192534531</v>
+        <v>1639.433183287319</v>
       </c>
       <c r="D8" t="n">
-        <v>1307.37649392778</v>
+        <v>1281.167484680569</v>
       </c>
       <c r="E8" t="n">
-        <v>921.588241329536</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F8" t="n">
-        <v>510.6023365399284</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>95.52988638492491</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>95.52988638492491</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052369</v>
@@ -4838,16 +4838,16 @@
         <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.744041450754</v>
+        <v>2403.038273524211</v>
       </c>
       <c r="X8" t="n">
-        <v>2424.744041450754</v>
+        <v>2029.572515263131</v>
       </c>
       <c r="Y8" t="n">
-        <v>2034.604709474942</v>
+        <v>1639.433183287319</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>691.6489789975187</v>
+        <v>826.5851666348717</v>
       </c>
       <c r="C10" t="n">
-        <v>522.7127960696118</v>
+        <v>657.6489837069648</v>
       </c>
       <c r="D10" t="n">
-        <v>372.5961566572761</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E10" t="n">
-        <v>372.5961566572761</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F10" t="n">
-        <v>372.5961566572761</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G10" t="n">
-        <v>204.893320031995</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="V10" t="n">
-        <v>1383.507193008249</v>
+        <v>1746.43293154362</v>
       </c>
       <c r="W10" t="n">
-        <v>1094.090022971289</v>
+        <v>1457.015761506659</v>
       </c>
       <c r="X10" t="n">
-        <v>1094.090022971289</v>
+        <v>1229.026210608642</v>
       </c>
       <c r="Y10" t="n">
-        <v>873.2974438277585</v>
+        <v>1008.233631465111</v>
       </c>
     </row>
     <row r="11">
@@ -5042,25 +5042,25 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5127,10 +5127,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190825</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>951.7772127656193</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C13" t="n">
-        <v>782.8410298377124</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253733</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>464.5051450557706</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5200,10 +5200,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W13" t="n">
-        <v>1354.218256739389</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X13" t="n">
-        <v>1354.218256739389</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y13" t="n">
-        <v>1133.425677595859</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="14">
@@ -5267,10 +5267,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5285,13 +5285,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745238</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N15" t="n">
-        <v>1318.79311422913</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
-        <v>1870.702844468417</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400716</v>
+        <v>700.7543264856225</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400716</v>
+        <v>700.7543264856225</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5437,10 +5437,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5464,22 +5464,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1982.71334142582</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1693.638114770018</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1438.953626564131</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1149.53645652717</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138413</v>
+        <v>921.5469056291527</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703113</v>
+        <v>700.7543264856225</v>
       </c>
     </row>
     <row r="17">
@@ -5507,13 +5507,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075809</v>
@@ -5522,13 +5522,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5589,25 +5589,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,46 +5647,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>802.928827395874</v>
+        <v>695.5020655703112</v>
       </c>
       <c r="C19" t="n">
-        <v>633.9926444679671</v>
+        <v>695.5020655703112</v>
       </c>
       <c r="D19" t="n">
-        <v>483.8760050556314</v>
+        <v>695.5020655703112</v>
       </c>
       <c r="E19" t="n">
-        <v>483.8760050556314</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F19" t="n">
-        <v>483.8760050556314</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>316.6799057705113</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
@@ -5704,19 +5704,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.369871369644</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.5772922261137</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="20">
@@ -5732,10 +5732,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5747,22 +5747,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.0655846733346</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C22" t="n">
-        <v>411.1294017454277</v>
+        <v>847.6442739835329</v>
       </c>
       <c r="D22" t="n">
-        <v>261.0127623330919</v>
+        <v>697.5276345711972</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>549.614540988804</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="U22" t="n">
-        <v>1754.59783778797</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V22" t="n">
-        <v>1499.913349582083</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W22" t="n">
-        <v>1210.496179545122</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X22" t="n">
-        <v>982.5066286471047</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y22" t="n">
-        <v>761.7140495035743</v>
+        <v>1198.228921741679</v>
       </c>
     </row>
     <row r="23">
@@ -5990,16 +5990,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6063,25 +6063,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>576.8388927589092</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C25" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121645</v>
       </c>
       <c r="D25" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121645</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121645</v>
       </c>
       <c r="F25" t="n">
-        <v>261.012762333092</v>
+        <v>344.9174178121645</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797189</v>
@@ -6145,16 +6145,16 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.741944003834</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797736</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N25" t="n">
         <v>1665.560112570817</v>
@@ -6163,13 +6163,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
         <v>2197.062545487567</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1751.371145873544</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1496.686657667657</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1207.269487630696</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>979.2799367326791</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y25" t="n">
-        <v>758.4873575891489</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="26">
@@ -6221,25 +6221,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400713</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121644</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121644</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121644</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121644</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>177.721318527044</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6388,7 +6388,7 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6421,13 +6421,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138412</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703111</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="29">
@@ -6537,25 +6537,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G31" t="n">
         <v>268.5553036345476</v>
@@ -6619,13 +6619,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954145</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380724</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311319</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
@@ -6701,7 +6701,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332388</v>
@@ -6725,25 +6725,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319327</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C34" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150025</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
         <v>483.8255460380728</v>
@@ -6889,19 +6889,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="35">
@@ -6935,19 +6935,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,7 +6956,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745237</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319317</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150016</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942648</v>
       </c>
       <c r="F37" t="n">
         <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7093,13 +7093,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954145</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380724</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311318</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,19 +7117,19 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U37" t="n">
         <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W37" t="n">
         <v>1483.79828551875</v>
@@ -7138,7 +7138,7 @@
         <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="38">
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345479</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7330,13 +7330,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,13 +7354,13 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
         <v>1978.840049838285</v>
@@ -7409,16 +7409,16 @@
         <v>95.34095638192592</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111731</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355938</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745236</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7552,13 +7552,13 @@
         <v>656.964603115002</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7570,10 +7570,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311319</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7588,7 +7588,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931273</v>
@@ -7597,7 +7597,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
         <v>1978.840049838285</v>
@@ -7643,25 +7643,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192764</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111731</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694708</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438179</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319314</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656808</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150014</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942646</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580106</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345468</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7840,16 +7840,16 @@
         <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>135.0615335795961</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8076,10 +8076,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>95.2876080383887</v>
       </c>
       <c r="R3" t="n">
-        <v>5.747744270113685</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-2.589839328116501e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -22544,16 +22544,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>233.8574293874032</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>256.4425290531133</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22562,7 +22562,7 @@
         <v>411.0904450475561</v>
       </c>
       <c r="H2" t="n">
-        <v>296.3356618821742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22598,10 +22598,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>204.6565392873045</v>
       </c>
       <c r="U2" t="n">
-        <v>251.0086695104302</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22708,19 +22708,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.1014899708501</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>145.4278941339733</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22762,7 +22762,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>175.6669948811964</v>
+        <v>159.187046441154</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -23425,10 +23425,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016456</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,13 +23473,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>166.0397529241855</v>
       </c>
       <c r="W13" t="n">
-        <v>207.8347205162546</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>119.863592160092</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>5.199738306158465</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>2.005313310877682</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.9259388694753988</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24133,16 +24133,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24175,13 +24175,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>65.54986409393086</v>
+        <v>99.26785128072228</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24373,13 +24373,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.22910392194208</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>62.35543909864964</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194214</v>
+        <v>57.22910392194252</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>66311.33934030094</v>
+        <v>66311.33934030098</v>
       </c>
       <c r="C2" t="n">
-        <v>82104.17698642834</v>
+        <v>82104.17698642837</v>
       </c>
       <c r="D2" t="n">
-        <v>82104.1769864283</v>
+        <v>82104.17698642831</v>
       </c>
       <c r="E2" t="n">
-        <v>80714.6599690006</v>
+        <v>80714.65996900061</v>
       </c>
       <c r="F2" t="n">
-        <v>80714.65996900057</v>
+        <v>80714.65996900058</v>
       </c>
       <c r="G2" t="n">
         <v>80714.65996900058</v>
       </c>
       <c r="H2" t="n">
-        <v>80714.6599690006</v>
+        <v>80714.65996900058</v>
       </c>
       <c r="I2" t="n">
-        <v>80714.6599690006</v>
+        <v>80714.65996900057</v>
       </c>
       <c r="J2" t="n">
-        <v>80714.65996900058</v>
+        <v>80714.65996900057</v>
       </c>
       <c r="K2" t="n">
-        <v>82104.17698642839</v>
+        <v>82104.17698642837</v>
       </c>
       <c r="L2" t="n">
-        <v>82104.17698642833</v>
+        <v>82104.17698642837</v>
       </c>
       <c r="M2" t="n">
-        <v>82104.17698642839</v>
+        <v>82104.17698642834</v>
       </c>
       <c r="N2" t="n">
         <v>82104.1769864284</v>
       </c>
       <c r="O2" t="n">
-        <v>82104.17698642841</v>
+        <v>82104.1769864284</v>
       </c>
       <c r="P2" t="n">
-        <v>82104.1769864284</v>
+        <v>82104.17698642837</v>
       </c>
     </row>
     <row r="3">
@@ -26366,7 +26366,7 @@
         <v>1271067.297476341</v>
       </c>
       <c r="C3" t="n">
-        <v>54832.77288023812</v>
+        <v>54832.77288023804</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>204074.6584503627</v>
+        <v>204074.6584503629</v>
       </c>
       <c r="K3" t="n">
-        <v>32664.34410594294</v>
+        <v>32664.34410594287</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.71799363176</v>
       </c>
     </row>
     <row r="4">
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14452.78963551401</v>
+        <v>14452.789635514</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815713</v>
+        <v>90964.01098815704</v>
       </c>
       <c r="D4" t="n">
         <v>90964.01098815708</v>
       </c>
       <c r="E4" t="n">
-        <v>11776.97621680577</v>
+        <v>11776.97621680581</v>
       </c>
       <c r="F4" t="n">
         <v>11776.97621680582</v>
@@ -26433,22 +26433,22 @@
         <v>11776.97621680582</v>
       </c>
       <c r="H4" t="n">
-        <v>11776.9762168058</v>
+        <v>11776.97621680584</v>
       </c>
       <c r="I4" t="n">
-        <v>11776.97621680583</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="J4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="K4" t="n">
-        <v>19767.83547989929</v>
+        <v>19767.8354798993</v>
       </c>
       <c r="L4" t="n">
-        <v>19767.83547989931</v>
+        <v>19767.83547989936</v>
       </c>
       <c r="M4" t="n">
-        <v>19767.83547989935</v>
+        <v>19767.83547989934</v>
       </c>
       <c r="N4" t="n">
         <v>19767.8354798993</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1323100.776383596</v>
+        <v>-1323495.59732475</v>
       </c>
       <c r="C6" t="n">
-        <v>-171626.5474433602</v>
+        <v>-171626.54744336</v>
       </c>
       <c r="D6" t="n">
         <v>-116793.7745631221</v>
       </c>
       <c r="E6" t="n">
-        <v>-357597.3078790674</v>
+        <v>-357632.0458045031</v>
       </c>
       <c r="F6" t="n">
-        <v>-32184.84607171237</v>
+        <v>-32219.58399714805</v>
       </c>
       <c r="G6" t="n">
-        <v>-32184.84607171235</v>
+        <v>-32219.58399714805</v>
       </c>
       <c r="H6" t="n">
-        <v>-32184.84607171232</v>
+        <v>-32219.58399714806</v>
       </c>
       <c r="I6" t="n">
-        <v>-32184.84607171235</v>
+        <v>-32219.58399714806</v>
       </c>
       <c r="J6" t="n">
-        <v>-236259.5045220751</v>
+        <v>-236294.2424475109</v>
       </c>
       <c r="K6" t="n">
-        <v>-73492.11845332923</v>
+        <v>-73492.1184533292</v>
       </c>
       <c r="L6" t="n">
-        <v>-40827.77434738638</v>
+        <v>-40827.77434738637</v>
       </c>
       <c r="M6" t="n">
         <v>-125882.8022828981</v>
       </c>
       <c r="N6" t="n">
-        <v>-40827.7743473863</v>
+        <v>-40827.77434738634</v>
       </c>
       <c r="O6" t="n">
-        <v>-40827.77434738628</v>
+        <v>-40827.77434738629</v>
       </c>
       <c r="P6" t="n">
         <v>-60255.49234101808</v>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="K2" t="n">
+        <v>24.28464749203974</v>
+      </c>
+      <c r="L2" t="n">
+        <v>24.28464749203974</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24.28464749203977</v>
+      </c>
+      <c r="O2" t="n">
+        <v>24.28464749203975</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203973</v>
-      </c>
-      <c r="L2" t="n">
-        <v>24.28464749203973</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.28464749203975</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203975</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203974</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>1047.807751310266</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>779.9707176559093</v>
+        <v>779.9707176559099</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26941,13 +26941,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="3">
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>779.9707176559093</v>
+        <v>779.9707176559099</v>
       </c>
       <c r="C4" t="n">
-        <v>51.43073774638322</v>
+        <v>51.43073774638299</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>779.9707176559093</v>
+        <v>779.9707176559098</v>
       </c>
       <c r="K4" t="n">
-        <v>51.43073774638322</v>
+        <v>51.43073774638299</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>779.9707176559093</v>
+        <v>779.9707176559099</v>
       </c>
       <c r="K4" t="n">
-        <v>51.43073774638322</v>
+        <v>51.43073774638299</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>144.9899196596983</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27673,10 +27673,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>98.28718484916607</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,19 +27822,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>100.3013134151605</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>259.3335119483635</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27853,13 +27853,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>291.8270912888459</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>12.84933751971189</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27910,13 +27910,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28017,19 +28017,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>104.1100437603454</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28065,16 +28065,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>162.0167956144508</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28810,7 +28810,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="32">
@@ -29755,13 +29755,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31039,10 +31039,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.212292467578955</v>
+        <v>4.212292467578956</v>
       </c>
       <c r="H2" t="n">
-        <v>43.13914023359298</v>
+        <v>43.13914023359299</v>
       </c>
       <c r="I2" t="n">
         <v>162.3944053563378</v>
@@ -31051,37 +31051,37 @@
         <v>357.5130578201797</v>
       </c>
       <c r="K2" t="n">
-        <v>535.8193979727969</v>
+        <v>535.819397972797</v>
       </c>
       <c r="L2" t="n">
-        <v>664.7313435774664</v>
+        <v>664.7313435774666</v>
       </c>
       <c r="M2" t="n">
-        <v>739.6416997477736</v>
+        <v>739.6416997477738</v>
       </c>
       <c r="N2" t="n">
-        <v>751.6098757212824</v>
+        <v>751.6098757212826</v>
       </c>
       <c r="O2" t="n">
-        <v>709.7238924967942</v>
+        <v>709.7238924967943</v>
       </c>
       <c r="P2" t="n">
-        <v>605.7329222034386</v>
+        <v>605.7329222034388</v>
       </c>
       <c r="Q2" t="n">
-        <v>454.8801982082671</v>
+        <v>454.8801982082672</v>
       </c>
       <c r="R2" t="n">
         <v>264.6004167165568</v>
       </c>
       <c r="S2" t="n">
-        <v>95.98761460495552</v>
+        <v>95.98761460495554</v>
       </c>
       <c r="T2" t="n">
-        <v>18.43931027682688</v>
+        <v>18.43931027682689</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3369833974063163</v>
+        <v>0.3369833974063164</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31121,31 +31121,31 @@
         <v>2.253775163195666</v>
       </c>
       <c r="H3" t="n">
-        <v>21.76672328665288</v>
+        <v>21.76672328665289</v>
       </c>
       <c r="I3" t="n">
-        <v>77.59708346967535</v>
+        <v>77.59708346967537</v>
       </c>
       <c r="J3" t="n">
-        <v>212.9323280280607</v>
+        <v>212.9323280280608</v>
       </c>
       <c r="K3" t="n">
         <v>363.9352639621704</v>
       </c>
       <c r="L3" t="n">
-        <v>489.355874798252</v>
+        <v>489.3558747982521</v>
       </c>
       <c r="M3" t="n">
-        <v>571.0552244640947</v>
+        <v>571.0552244640949</v>
       </c>
       <c r="N3" t="n">
-        <v>586.1693570278062</v>
+        <v>586.1693570278063</v>
       </c>
       <c r="O3" t="n">
-        <v>536.2304442012074</v>
+        <v>536.2304442012075</v>
       </c>
       <c r="P3" t="n">
-        <v>430.3722063825128</v>
+        <v>430.3722063825129</v>
       </c>
       <c r="Q3" t="n">
         <v>287.6924225861696</v>
@@ -31154,13 +31154,13 @@
         <v>139.9317596938503</v>
       </c>
       <c r="S3" t="n">
-        <v>41.86288515848087</v>
+        <v>41.86288515848089</v>
       </c>
       <c r="T3" t="n">
-        <v>9.084295504284283</v>
+        <v>9.084295504284285</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1482746817891886</v>
+        <v>0.1482746817891887</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>16.79927837346624</v>
       </c>
       <c r="I4" t="n">
-        <v>56.82209903826819</v>
+        <v>56.82209903826821</v>
       </c>
       <c r="J4" t="n">
         <v>133.5868997039334</v>
@@ -31212,31 +31212,31 @@
         <v>219.5243124876261</v>
       </c>
       <c r="L4" t="n">
-        <v>280.9155404086572</v>
+        <v>280.9155404086573</v>
       </c>
       <c r="M4" t="n">
         <v>296.1860500957854</v>
       </c>
       <c r="N4" t="n">
-        <v>289.1434078328805</v>
+        <v>289.1434078328806</v>
       </c>
       <c r="O4" t="n">
-        <v>267.0707363503609</v>
+        <v>267.070736350361</v>
       </c>
       <c r="P4" t="n">
         <v>228.5251528431438</v>
       </c>
       <c r="Q4" t="n">
-        <v>158.2189704478501</v>
+        <v>158.2189704478502</v>
       </c>
       <c r="R4" t="n">
-        <v>84.95831373738643</v>
+        <v>84.95831373738645</v>
       </c>
       <c r="S4" t="n">
-        <v>32.92864687314391</v>
+        <v>32.92864687314392</v>
       </c>
       <c r="T4" t="n">
-        <v>8.073272837964339</v>
+        <v>8.073272837964341</v>
       </c>
       <c r="U4" t="n">
         <v>0.1030630575059279</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31847,13 +31847,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>370.9642309107746</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -32072,34 +32072,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>573.8098963904297</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,34 +32546,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,28 +32783,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>506.5665344352332</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33020,34 +33020,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33199,13 +33199,13 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q29" t="n">
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33257,28 +33257,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>669.5976799347666</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33409,37 +33409,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33448,10 +33448,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,40 +33494,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N33" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33573,28 +33573,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33603,7 +33603,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,37 +33646,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33685,10 +33685,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33731,40 +33731,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N36" t="n">
-        <v>754.000239683233</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33810,28 +33810,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33840,7 +33840,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -34129,7 +34129,7 @@
         <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663298</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817574</v>
@@ -34141,7 +34141,7 @@
         <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159444</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460026</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862119</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071783</v>
       </c>
       <c r="O42" t="n">
-        <v>688.8020111197792</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742437</v>
@@ -34363,7 +34363,7 @@
         <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067249</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663281</v>
@@ -34384,7 +34384,7 @@
         <v>926.5868626460026</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236526</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669222</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622667</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071783</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742437</v>
@@ -34699,28 +34699,28 @@
         <v>176.4671532934934</v>
       </c>
       <c r="K2" t="n">
-        <v>315.7295469278163</v>
+        <v>315.7295469278164</v>
       </c>
       <c r="L2" t="n">
-        <v>428.9649286074792</v>
+        <v>428.9649286074794</v>
       </c>
       <c r="M2" t="n">
-        <v>509.2954665205009</v>
+        <v>509.2954665205011</v>
       </c>
       <c r="N2" t="n">
-        <v>522.1968121246914</v>
+        <v>522.1968121246916</v>
       </c>
       <c r="O2" t="n">
-        <v>479.6256810751074</v>
+        <v>479.6256810751075</v>
       </c>
       <c r="P2" t="n">
-        <v>374.4999264481691</v>
+        <v>374.4999264481692</v>
       </c>
       <c r="Q2" t="n">
-        <v>232.5745083338176</v>
+        <v>232.5745083338178</v>
       </c>
       <c r="R2" t="n">
-        <v>49.01487890242464</v>
+        <v>49.0148789024247</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>86.09470136139404</v>
+        <v>86.0947013613941</v>
       </c>
       <c r="K3" t="n">
-        <v>361.1553585674075</v>
+        <v>226.0938249878114</v>
       </c>
       <c r="L3" t="n">
-        <v>350.8014950183778</v>
+        <v>350.8014950183779</v>
       </c>
       <c r="M3" t="n">
-        <v>428.9211905420764</v>
+        <v>428.9211905420765</v>
       </c>
       <c r="N3" t="n">
-        <v>454.8276449444729</v>
+        <v>454.827644944473</v>
       </c>
       <c r="O3" t="n">
-        <v>393.634199756763</v>
+        <v>393.6341997567631</v>
       </c>
       <c r="P3" t="n">
-        <v>296.3977989681825</v>
+        <v>296.3977989681827</v>
       </c>
       <c r="Q3" t="n">
-        <v>147.7106485001481</v>
+        <v>242.9982565385368</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>39.77392554120716</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,13 +34854,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>40.22771958726059</v>
+        <v>40.22771958726062</v>
       </c>
       <c r="K4" t="n">
         <v>197.2548206617433</v>
       </c>
       <c r="L4" t="n">
-        <v>308.5055656689733</v>
+        <v>308.5055656689734</v>
       </c>
       <c r="M4" t="n">
         <v>335.769927057626</v>
@@ -34872,10 +34872,10 @@
         <v>291.6558642644006</v>
       </c>
       <c r="P4" t="n">
-        <v>225.8037121080372</v>
+        <v>225.8037121080373</v>
       </c>
       <c r="Q4" t="n">
-        <v>72.05692719615574</v>
+        <v>72.05692719615577</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35495,13 +35495,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>228.3679864663302</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>431.6758624684114</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,28 +35957,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,28 +36431,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>364.4325005132149</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295339</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36765,7 +36765,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36847,13 +36847,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,28 +36905,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>527.4636460127483</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36990,16 +36990,16 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O31" t="n">
         <v>397.5465471980851</v>
@@ -37063,31 +37063,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N33" t="n">
-        <v>622.6585275998996</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37239,13 +37239,13 @@
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.546547198085</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,31 +37300,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N36" t="n">
-        <v>622.6585275998997</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930847</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.910780481947</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.546547198085</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37777,7 +37777,7 @@
         <v>1.539690236317227</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396436</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
         <v>479.4543240367769</v>
@@ -37789,7 +37789,7 @@
         <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193534</v>
       </c>
       <c r="O41" t="n">
         <v>696.4886512243158</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641936</v>
@@ -37871,16 +37871,16 @@
         <v>633.937336923845</v>
       </c>
       <c r="O42" t="n">
-        <v>546.2057666753348</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236318958</v>
       </c>
       <c r="J44" t="n">
         <v>285.7087110396419</v>
@@ -38032,7 +38032,7 @@
         <v>696.4886512243158</v>
       </c>
       <c r="P44" t="n">
-        <v>559.587454168383</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924726</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402485</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N45" t="n">
         <v>633.937336923845</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930847</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.910780481947</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.546547198085</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
